--- a/data/cross-browser Metastudie/cross-browser_Metastudie.xlsx
+++ b/data/cross-browser Metastudie/cross-browser_Metastudie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\bachelorarbeit\data\cross-browser Metastudie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59022474-F778-4C1D-8994-659589352FFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540A544C-6B12-4F95-9EF3-7A0AF44DD9A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54D5DEE8-7292-4CF4-A1C3-548CC96A1DD8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{54D5DEE8-7292-4CF4-A1C3-548CC96A1DD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Google Scholar Suchtreffer" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Jahr</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Treffer</t>
+  </si>
+  <si>
+    <t>2020 (*2)</t>
   </si>
 </sst>
 </file>
@@ -415,22 +418,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE6ED51-2386-4F7B-807A-8C98984AFD18}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -439,7 +442,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -456,7 +459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -476,7 +479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -496,7 +499,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -516,7 +519,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -536,7 +539,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -556,7 +559,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -576,7 +579,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -594,6 +597,26 @@
       </c>
       <c r="F9">
         <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>313</v>
+      </c>
+      <c r="C10">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>133</v>
+      </c>
+      <c r="F10">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/data/cross-browser Metastudie/cross-browser_Metastudie.xlsx
+++ b/data/cross-browser Metastudie/cross-browser_Metastudie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\bachelorarbeit\data\cross-browser Metastudie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540A544C-6B12-4F95-9EF3-7A0AF44DD9A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE8AFB2-03FF-4CDC-BBC7-82B3B86537FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{54D5DEE8-7292-4CF4-A1C3-548CC96A1DD8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Jahr</t>
   </si>
@@ -63,7 +63,10 @@
     <t>Treffer</t>
   </si>
   <si>
-    <t>2020 (*2)</t>
+    <t>2020 (14.01.21)</t>
+  </si>
+  <si>
+    <t>2020 (21.12.20)</t>
   </si>
 </sst>
 </file>
@@ -418,22 +421,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE6ED51-2386-4F7B-807A-8C98984AFD18}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -442,7 +445,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -459,7 +462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -479,7 +482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -499,7 +502,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -519,7 +522,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -539,7 +542,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -559,7 +562,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -579,7 +582,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -599,9 +602,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>313</v>
@@ -617,6 +620,26 @@
       </c>
       <c r="F10">
         <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>335</v>
+      </c>
+      <c r="C11">
+        <v>62</v>
+      </c>
+      <c r="D11">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>146</v>
+      </c>
+      <c r="F11">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/data/cross-browser Metastudie/cross-browser_Metastudie.xlsx
+++ b/data/cross-browser Metastudie/cross-browser_Metastudie.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\bachelorarbeit\data\cross-browser Metastudie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE8AFB2-03FF-4CDC-BBC7-82B3B86537FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE10855-F1C0-4559-A531-0675D85131B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{54D5DEE8-7292-4CF4-A1C3-548CC96A1DD8}"/>
+    <workbookView xWindow="7170" yWindow="2640" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{54D5DEE8-7292-4CF4-A1C3-548CC96A1DD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Google Scholar Suchtreffer" sheetId="1" r:id="rId1"/>
+    <sheet name="Google Trends" sheetId="2" r:id="rId2"/>
+    <sheet name="Google Trends Data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>Jahr</t>
   </si>
@@ -43,9 +45,6 @@
   </si>
   <si>
     <t>"cross browser"</t>
-  </si>
-  <si>
-    <t>2020 (*)</t>
   </si>
   <si>
     <t>"cross browser compatibility"</t>
@@ -63,20 +62,121 @@
     <t>Treffer</t>
   </si>
   <si>
-    <t>2020 (14.01.21)</t>
+    <t>Month</t>
   </si>
   <si>
-    <t>2020 (21.12.20)</t>
+    <t>cross browser compatibility: (Worldwide)</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Results (%)</t>
+  </si>
+  <si>
+    <t>Quartal</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Trefferanzahl (%)</t>
+  </si>
+  <si>
+    <t>2015 Q1</t>
+  </si>
+  <si>
+    <t>2016 Q1</t>
+  </si>
+  <si>
+    <t>2017 Q1</t>
+  </si>
+  <si>
+    <t>2018 Q1</t>
+  </si>
+  <si>
+    <t>2019 Q1</t>
+  </si>
+  <si>
+    <t>2020 Q1</t>
+  </si>
+  <si>
+    <t>2015 Q2</t>
+  </si>
+  <si>
+    <t>2015 Q3</t>
+  </si>
+  <si>
+    <t>2015 Q4</t>
+  </si>
+  <si>
+    <t>2016 Q2</t>
+  </si>
+  <si>
+    <t>2016 Q3</t>
+  </si>
+  <si>
+    <t>2016 Q4</t>
+  </si>
+  <si>
+    <t>2017 Q2</t>
+  </si>
+  <si>
+    <t>2017 Q3</t>
+  </si>
+  <si>
+    <t>2017 Q4</t>
+  </si>
+  <si>
+    <t>2018 Q2</t>
+  </si>
+  <si>
+    <t>2018 Q3</t>
+  </si>
+  <si>
+    <t>2018 Q4</t>
+  </si>
+  <si>
+    <t>2019 Q2</t>
+  </si>
+  <si>
+    <t>2019 Q3</t>
+  </si>
+  <si>
+    <t>2019 Q4</t>
+  </si>
+  <si>
+    <t>2020 Q2</t>
+  </si>
+  <si>
+    <t>2020 Q3</t>
+  </si>
+  <si>
+    <t>2020 Q4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,9 +202,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -122,6 +228,1764 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Google</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Trends "cross browser compatibility"</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.3225960391314724E-2"/>
+          <c:y val="0.35355853797144576"/>
+          <c:w val="0.93517752326413739"/>
+          <c:h val="0.4953459474282132"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Google Trends'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trefferanzahl (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Google Trends'!$A$3:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2015 Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015 Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015 Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2015 Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2016 Q1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016 Q2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016 Q3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016 Q4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017 Q1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017 Q2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017 Q3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017 Q4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2018 Q1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2018 Q2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2018 Q3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2018 Q4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2019 Q1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019 Q2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2019 Q3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019 Q4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020 Q1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020 Q2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020 Q3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020 Q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Google Trends'!$B$3:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C3A9-43DD-813F-C89978C664F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1070645568"/>
+        <c:axId val="1070657632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1070645568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1070657632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="0"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1070657632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="105"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1070645568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
+        <c:minorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.59048054356149615"/>
+          <c:y val="0.26304038860814039"/>
+          <c:w val="0.16252040267256723"/>
+          <c:h val="6.7164649194970047E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70868D73-0C10-4330-ACA5-85553E3A639A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.84196</cdr:x>
+      <cdr:y>0.25075</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.84196</cdr:x>
+      <cdr:y>0.69552</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Gerade Verbindung mit Pfeil 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4F8BE8-FB3D-4662-A37B-094875992E3B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6848812" y="800101"/>
+          <a:ext cx="0" cy="1419225"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.77176</cdr:x>
+      <cdr:y>0.10077</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9918</cdr:x>
+      <cdr:y>0.26269</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="Textfeld 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1180E332-A91F-41C8-BD5D-9B5B6DD276F2}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6277756" y="321555"/>
+          <a:ext cx="1789920" cy="516646"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Veröffentlichung v.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Microsoft Edge (Chromium)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.13997</cdr:x>
+      <cdr:y>0.35589</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.13997</cdr:x>
+      <cdr:y>0.59403</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="7" name="Gerade Verbindung mit Pfeil 6">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DF09A5D-8C9C-4AF3-8D34-F057A0A12480}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1138587" y="1135613"/>
+          <a:ext cx="0" cy="759863"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00568</cdr:x>
+      <cdr:y>0.23129</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.14738</cdr:x>
+      <cdr:y>0.36555</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="Textfeld 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B25C3590-E367-4F7C-B466-D87A8C438944}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="46203" y="863600"/>
+          <a:ext cx="1152675" cy="501283"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Veröffentlichung v.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100"/>
+            <a:t>Microsoft Edge (EdgeHTML)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.95932</cdr:x>
+      <cdr:y>0.36418</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95932</cdr:x>
+      <cdr:y>0.80025</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="24" name="Gerade Verbindung mit Pfeil 23">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B501AEE-A11F-403B-B810-77BAA0E71E38}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7803419" y="1162051"/>
+          <a:ext cx="0" cy="1391443"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.84332</cdr:x>
+      <cdr:y>0.2314</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.36565</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="36" name="Textfeld 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16439A33-5F95-4458-9D52-10CC6E5AED1E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6859822" y="793455"/>
+          <a:ext cx="1274529" cy="460362"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EOL für</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> den</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Internet</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Explorer 11</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.21879</cdr:x>
+      <cdr:y>0.22531</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.21879</cdr:x>
+      <cdr:y>0.49851</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="37" name="Gerade Verbindung mit Pfeil 36">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE5ACF17-6B7A-40A4-ADC3-E6BAB610BFB6}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1779686" y="718951"/>
+          <a:ext cx="0" cy="871725"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.16061</cdr:x>
+      <cdr:y>0.09697</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.30231</cdr:x>
+      <cdr:y>0.23123</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="42" name="Textfeld 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AED16081-6D0F-4D5E-B7C3-82DD3FDDFA5A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1346200" y="355600"/>
+          <a:ext cx="1187767" cy="492331"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EOL für veraltete</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Internet Explorer Versionen</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,14 +2285,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE6ED51-2386-4F7B-807A-8C98984AFD18}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
@@ -446,40 +2311,634 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
+        <v>44133</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2015</v>
+      </c>
+      <c r="B5">
+        <v>625</v>
+      </c>
+      <c r="C5">
+        <v>134</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>282</v>
+      </c>
+      <c r="F5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2016</v>
+      </c>
+      <c r="B6">
+        <v>548</v>
+      </c>
+      <c r="C6">
+        <v>129</v>
+      </c>
+      <c r="D6">
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>228</v>
+      </c>
+      <c r="F6">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2017</v>
+      </c>
+      <c r="B7">
+        <v>575</v>
+      </c>
+      <c r="C7">
+        <v>111</v>
+      </c>
+      <c r="D7">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>275</v>
+      </c>
+      <c r="F7">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2018</v>
+      </c>
+      <c r="B8">
+        <v>557</v>
+      </c>
+      <c r="C8">
+        <v>102</v>
+      </c>
+      <c r="D8">
+        <v>46</v>
+      </c>
+      <c r="E8">
+        <v>224</v>
+      </c>
+      <c r="F8">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2019</v>
+      </c>
+      <c r="B9">
+        <v>408</v>
+      </c>
+      <c r="C9">
+        <v>79</v>
+      </c>
+      <c r="D9">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>177</v>
+      </c>
+      <c r="F9">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2020</v>
+      </c>
+      <c r="B10">
+        <v>311</v>
+      </c>
+      <c r="C10">
+        <v>52</v>
+      </c>
+      <c r="D10">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>125</v>
+      </c>
+      <c r="F10">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>44186</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2020</v>
+      </c>
+      <c r="B15">
+        <v>313</v>
+      </c>
+      <c r="C15">
+        <v>54</v>
+      </c>
+      <c r="D15">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>133</v>
+      </c>
+      <c r="F15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>44210</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2020</v>
+      </c>
+      <c r="B20">
+        <v>335</v>
+      </c>
+      <c r="C20">
+        <v>62</v>
+      </c>
+      <c r="D20">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>146</v>
+      </c>
+      <c r="F20">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>44210</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2015</v>
+      </c>
+      <c r="F25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2016</v>
+      </c>
+      <c r="F26">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2017</v>
+      </c>
+      <c r="F27">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2018</v>
+      </c>
+      <c r="F28">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2019</v>
+      </c>
+      <c r="F29">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2020</v>
+      </c>
+      <c r="F30">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B23:F23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A91DF6-5172-474C-ABF3-80E00428925F}">
+  <dimension ref="A2:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <f>_xlfn.MAXIFS('Google Trends Data'!$D$4:$D$75, 'Google Trends Data'!$F$4:$F$75, 'Google Trends'!$A3)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <f>_xlfn.MAXIFS('Google Trends Data'!$D$4:$D$75, 'Google Trends Data'!$F$4:$F$75, 'Google Trends'!$A4)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <f>_xlfn.MAXIFS('Google Trends Data'!$D$4:$D$75, 'Google Trends Data'!$F$4:$F$75, 'Google Trends'!$A5)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <f>_xlfn.MAXIFS('Google Trends Data'!$D$4:$D$75, 'Google Trends Data'!$F$4:$F$75, 'Google Trends'!$A6)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <f>_xlfn.MAXIFS('Google Trends Data'!$D$4:$D$75, 'Google Trends Data'!$F$4:$F$75, 'Google Trends'!$A7)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <f>_xlfn.MAXIFS('Google Trends Data'!$D$4:$D$75, 'Google Trends Data'!$F$4:$F$75, 'Google Trends'!$A8)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <f>_xlfn.MAXIFS('Google Trends Data'!$D$4:$D$75, 'Google Trends Data'!$F$4:$F$75, 'Google Trends'!$A9)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <f>_xlfn.MAXIFS('Google Trends Data'!$D$4:$D$75, 'Google Trends Data'!$F$4:$F$75, 'Google Trends'!$A10)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <f>_xlfn.MAXIFS('Google Trends Data'!$D$4:$D$75, 'Google Trends Data'!$F$4:$F$75, 'Google Trends'!$A11)</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <f>_xlfn.MAXIFS('Google Trends Data'!$D$4:$D$75, 'Google Trends Data'!$F$4:$F$75, 'Google Trends'!$A12)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <f>_xlfn.MAXIFS('Google Trends Data'!$D$4:$D$75, 'Google Trends Data'!$F$4:$F$75, 'Google Trends'!$A13)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <f>_xlfn.MAXIFS('Google Trends Data'!$D$4:$D$75, 'Google Trends Data'!$F$4:$F$75, 'Google Trends'!$A14)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <f>_xlfn.MAXIFS('Google Trends Data'!$D$4:$D$75, 'Google Trends Data'!$F$4:$F$75, 'Google Trends'!$A15)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <f>_xlfn.MAXIFS('Google Trends Data'!$D$4:$D$75, 'Google Trends Data'!$F$4:$F$75, 'Google Trends'!$A16)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <f>_xlfn.MAXIFS('Google Trends Data'!$D$4:$D$75, 'Google Trends Data'!$F$4:$F$75, 'Google Trends'!$A17)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <f>_xlfn.MAXIFS('Google Trends Data'!$D$4:$D$75, 'Google Trends Data'!$F$4:$F$75, 'Google Trends'!$A18)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <f>_xlfn.MAXIFS('Google Trends Data'!$D$4:$D$75, 'Google Trends Data'!$F$4:$F$75, 'Google Trends'!$A19)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <f>_xlfn.MAXIFS('Google Trends Data'!$D$4:$D$75, 'Google Trends Data'!$F$4:$F$75, 'Google Trends'!$A20)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <f>_xlfn.MAXIFS('Google Trends Data'!$D$4:$D$75, 'Google Trends Data'!$F$4:$F$75, 'Google Trends'!$A21)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <f>_xlfn.MAXIFS('Google Trends Data'!$D$4:$D$75, 'Google Trends Data'!$F$4:$F$75, 'Google Trends'!$A22)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <f>_xlfn.MAXIFS('Google Trends Data'!$D$4:$D$75, 'Google Trends Data'!$F$4:$F$75, 'Google Trends'!$A23)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <f>_xlfn.MAXIFS('Google Trends Data'!$D$4:$D$75, 'Google Trends Data'!$F$4:$F$75, 'Google Trends'!$A24)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25">
+        <f>_xlfn.MAXIFS('Google Trends Data'!$D$4:$D$75, 'Google Trends Data'!$F$4:$F$75, 'Google Trends'!$A25)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <f>_xlfn.MAXIFS('Google Trends Data'!$D$4:$D$75, 'Google Trends Data'!$F$4:$F$75, 'Google Trends'!$A26)</f>
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BDF0FB-6E06-41E7-8DE0-A2D21584C86E}">
+  <dimension ref="A2:F75"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -487,165 +2946,1374 @@
         <v>2015</v>
       </c>
       <c r="B4">
-        <v>625</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>134</v>
+        <f>ROUNDUP(B4/3,0)</f>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>35</v>
-      </c>
-      <c r="E4">
-        <v>282</v>
-      </c>
-      <c r="F4">
-        <v>299</v>
+        <v>99</v>
+      </c>
+      <c r="F4" t="str">
+        <f>A4 &amp;  " Q" &amp; C4</f>
+        <v>2015 Q1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B5">
-        <v>548</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>129</v>
+        <f t="shared" ref="C5:C68" si="0">ROUNDUP(B5/3,0)</f>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>33</v>
-      </c>
-      <c r="E5">
-        <v>228</v>
-      </c>
-      <c r="F5">
-        <v>246</v>
+        <v>44</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" ref="F5:F68" si="1">A5 &amp;  " Q" &amp; C5</f>
+        <v>2015 Q1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B6">
-        <v>575</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>111</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>41</v>
-      </c>
-      <c r="E6">
-        <v>275</v>
-      </c>
-      <c r="F6">
-        <v>286</v>
+        <v>32</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>2015 Q1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="B7">
-        <v>557</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>102</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>46</v>
-      </c>
-      <c r="E7">
-        <v>224</v>
-      </c>
-      <c r="F7">
-        <v>238</v>
+        <v>100</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>2015 Q2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>2015</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>72</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>2015 Q2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2015</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>2015 Q2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2015</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>2015 Q3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2015</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>56</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>2015 Q3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2015</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>39</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>2015 Q3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2015</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>74</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>2015 Q4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2015</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>84</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>2015 Q4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2015</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>53</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>2015 Q4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2016</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>39</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>2016 Q1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2016</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>73</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>2016 Q1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>76</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>2016 Q1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2016</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>2016 Q2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2016</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>23</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>2016 Q2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2016</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>48</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>2016 Q2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2016</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>41</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>2016 Q3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2016</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>33</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>2016 Q3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2016</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>41</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>2016 Q3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2016</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>32</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>2016 Q4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2016</v>
+      </c>
+      <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>32</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>2016 Q4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2016</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>46</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>2016 Q4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2017</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>87</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>2017 Q1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2017</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>62</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>2017 Q1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2017</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>28</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>2017 Q1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2017</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>45</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>2017 Q2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2017</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>44</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>2017 Q2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2017</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>39</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>2017 Q2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2017</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>69</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>2017 Q3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2017</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>37</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>2017 Q3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2017</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>53</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>2017 Q3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2017</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>50</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>2017 Q4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2017</v>
+      </c>
+      <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>29</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>2017 Q4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2017</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>44</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>2017 Q4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2018</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>54</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>2018 Q1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2018</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>45</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>2018 Q1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2018</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>2018 Q1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2018</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>21</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>2018 Q2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2018</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>82</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>2018 Q2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2018</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>14</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v>2018 Q2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2018</v>
+      </c>
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>27</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v>2018 Q3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2018</v>
+      </c>
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>67</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="1"/>
+        <v>2018 Q3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2018</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>76</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="1"/>
+        <v>2018 Q3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2018</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>20</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="1"/>
+        <v>2018 Q4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2018</v>
+      </c>
+      <c r="B50">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>41</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="1"/>
+        <v>2018 Q4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2018</v>
+      </c>
+      <c r="B51">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>34</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="1"/>
+        <v>2018 Q4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>2019</v>
       </c>
-      <c r="B8">
-        <v>408</v>
-      </c>
-      <c r="C8">
-        <v>79</v>
-      </c>
-      <c r="D8">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>39</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="1"/>
+        <v>2019 Q1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2019</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>14</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="1"/>
+        <v>2019 Q1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2019</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>26</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="1"/>
+        <v>2019 Q1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2019</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>20</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="1"/>
+        <v>2019 Q2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2019</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>52</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="1"/>
+        <v>2019 Q2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2019</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>40</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="1"/>
+        <v>2019 Q2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2019</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>33</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="1"/>
+        <v>2019 Q3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2019</v>
+      </c>
+      <c r="B59">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>39</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="1"/>
+        <v>2019 Q3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2019</v>
+      </c>
+      <c r="B60">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>32</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="1"/>
+        <v>2019 Q3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2019</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>24</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="1"/>
+        <v>2019 Q4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2019</v>
+      </c>
+      <c r="B62">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>19</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="1"/>
+        <v>2019 Q4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2019</v>
+      </c>
+      <c r="B63">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>13</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="1"/>
+        <v>2019 Q4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2020</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>41</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="1"/>
+        <v>2020 Q1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2020</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>25</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="1"/>
+        <v>2020 Q1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2020</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="1"/>
+        <v>2020 Q1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2020</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>38</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="1"/>
+        <v>2020 Q2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2020</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>43</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="1"/>
+        <v>2020 Q2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2020</v>
+      </c>
+      <c r="B69">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ref="C69:C75" si="2">ROUNDUP(B69/3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>6</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" ref="F69:F75" si="3">A69 &amp;  " Q" &amp; C69</f>
+        <v>2020 Q2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2020</v>
+      </c>
+      <c r="B70">
+        <v>7</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>51</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="3"/>
+        <v>2020 Q3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2020</v>
+      </c>
+      <c r="B71">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D71">
         <v>23</v>
       </c>
-      <c r="E8">
-        <v>177</v>
-      </c>
-      <c r="F8">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="F71" t="str">
+        <f t="shared" si="3"/>
+        <v>2020 Q3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2020</v>
+      </c>
+      <c r="B72">
+        <v>9</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B9">
-        <v>311</v>
-      </c>
-      <c r="C9">
-        <v>52</v>
-      </c>
-      <c r="D9">
+      <c r="D72">
+        <v>45</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="3"/>
+        <v>2020 Q3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2020</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D73">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>125</v>
-      </c>
-      <c r="F9">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>313</v>
-      </c>
-      <c r="C10">
-        <v>54</v>
-      </c>
-      <c r="D10">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>133</v>
-      </c>
-      <c r="F10">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>335</v>
-      </c>
-      <c r="C11">
-        <v>62</v>
-      </c>
-      <c r="D11">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>146</v>
-      </c>
-      <c r="F11">
-        <v>160</v>
+      <c r="F73" t="str">
+        <f t="shared" si="3"/>
+        <v>2020 Q4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2020</v>
+      </c>
+      <c r="B74">
+        <v>11</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>6</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="3"/>
+        <v>2020 Q4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2020</v>
+      </c>
+      <c r="B75">
+        <v>12</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>18</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="3"/>
+        <v>2020 Q4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>